--- a/medicine/Psychotrope/Parisienne_(cigarette)/Parisienne_(cigarette).xlsx
+++ b/medicine/Psychotrope/Parisienne_(cigarette)/Parisienne_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parisienne est une marque de cigarettes suisses créée en 1887 par François-Joseph Burrus, dans le canton du Jura, et rachetée par British American Tobacco en 1999[1]. Elles sont fabriquées à Boncourt (Jura), où le volume de production est de 6 à 7 milliards d'unités par an, contre un pic de 16 milliards dans les années nonante[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parisienne est une marque de cigarettes suisses créée en 1887 par François-Joseph Burrus, dans le canton du Jura, et rachetée par British American Tobacco en 1999. Elles sont fabriquées à Boncourt (Jura), où le volume de production est de 6 à 7 milliards d'unités par an, contre un pic de 16 milliards dans les années nonante.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque fait parfois appel à des réalisateurs célèbres pour réaliser ses spots publicitaires, comme Jean-Luc Godard pour le spot Parisienne People coréalisé en 1992 avec Anne-Marie Miéville et Emir Kusturica en 1994[3], ou David Lynch en 1998[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque fait parfois appel à des réalisateurs célèbres pour réaliser ses spots publicitaires, comme Jean-Luc Godard pour le spot Parisienne People coréalisé en 1992 avec Anne-Marie Miéville et Emir Kusturica en 1994, ou David Lynch en 1998.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après près de cent ans de production en Suisse, British tobacco a décidé en 2023 de délocaliser celle-ci à l'étranger. Cette décision est silencieusement suivi d'une diminution significative de la quantité de tabac présente dans chaque cigarette. Aucune mention de cette mesure n'est indiquée sur les paquets, laissant la clientèle fidèle se faire berner en abusant de la confiance de celle-ci.
 </t>
